--- a/medicine/Psychotrope/Chardonnay_(cépage)/Chardonnay_(cépage).xlsx
+++ b/medicine/Psychotrope/Chardonnay_(cépage)/Chardonnay_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chardonnay_(c%C3%A9page)</t>
+          <t>Chardonnay_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chardonnay B[1] est un cépage blanc français. Originaire du vignoble de Bourgogne, il est devenu un cépage international ayant conquis de très nombreux pays producteurs de vin du monde.
+Le chardonnay B est un cépage blanc français. Originaire du vignoble de Bourgogne, il est devenu un cépage international ayant conquis de très nombreux pays producteurs de vin du monde.
 Ses qualités le font utiliser pour de nombreux types de vin blanc, des grands crus de Bourgogne aux vins effervescents de champagne en passant par les vins de cépages.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chardonnay_(c%C3%A9page)</t>
+          <t>Chardonnay_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,25 +527,178 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoire
-Ce cépage est connu depuis fort longtemps en Bourgogne, décrit sous des formes différentes qui le font ressembler au pinot noir N ou au melon de Bourgogne B. C'est Pierre Galet[2] en 1958 qui a permis de les différencier définitivement du pinot blanc B par sa méthode ampélographique, cette dernière en faisant un cépage à part entière. Le village viticole bourguignon de Chardonnay en Haut-Mâconnais, qui appartient au vignoble du Mâconnais, est probablement le berceau historique de ce cépage.
-Une légende le disait rapporté par les croisés[2], mais son origine réelle a été découverte à la fin du XXe siècle : une équipe de chercheurs de l'Université de Californie à Davis a démontré qu'il est issu d'un croisement entre le pinot noir N et le gouais B. Il appartient donc à la famille des Noiriens.
-Aire de répartition
-En France, c'est l'un des principaux cépages des appellations d'origines contrôlées de Champagne, de Bourgogne, du vignoble de la vallée de la Loire, du vignoble du Jura, mais on le retrouve aussi dans le vignoble du Languedoc à Limoux et dans celui du vignoble du Sud-Ouest en vin de pays. Il a été implanté dans le vignoble de Savoie en 1958 par le viticulteur Henri Schwartz à Cruet. Il fait l'objet d'un engouement très important depuis une quarantaine d'années. Il est passé de 7 300 ha en 1958 à 24 000 ha en 1994[3], et près de 30 000 ha dans le milieu des années 2000.
-Ailleurs en Europe, il est notamment cultivé en Allemagne où il n'a été introduit qu'en 1990, en Suisse, où il couvrait 403 ha en 2020[4] contre seulement 150 en 1994, ou encore en Italie du nord.
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage est connu depuis fort longtemps en Bourgogne, décrit sous des formes différentes qui le font ressembler au pinot noir N ou au melon de Bourgogne B. C'est Pierre Galet en 1958 qui a permis de les différencier définitivement du pinot blanc B par sa méthode ampélographique, cette dernière en faisant un cépage à part entière. Le village viticole bourguignon de Chardonnay en Haut-Mâconnais, qui appartient au vignoble du Mâconnais, est probablement le berceau historique de ce cépage.
+Une légende le disait rapporté par les croisés, mais son origine réelle a été découverte à la fin du XXe siècle : une équipe de chercheurs de l'Université de Californie à Davis a démontré qu'il est issu d'un croisement entre le pinot noir N et le gouais B. Il appartient donc à la famille des Noiriens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, c'est l'un des principaux cépages des appellations d'origines contrôlées de Champagne, de Bourgogne, du vignoble de la vallée de la Loire, du vignoble du Jura, mais on le retrouve aussi dans le vignoble du Languedoc à Limoux et dans celui du vignoble du Sud-Ouest en vin de pays. Il a été implanté dans le vignoble de Savoie en 1958 par le viticulteur Henri Schwartz à Cruet. Il fait l'objet d'un engouement très important depuis une quarantaine d'années. Il est passé de 7 300 ha en 1958 à 24 000 ha en 1994, et près de 30 000 ha dans le milieu des années 2000.
+Ailleurs en Europe, il est notamment cultivé en Allemagne où il n'a été introduit qu'en 1990, en Suisse, où il couvrait 403 ha en 2020 contre seulement 150 en 1994, ou encore en Italie du nord.
 En Amérique, il est cultivé sur plus de 75 000 ha aux États-Unis (Californie essentiellement : 72 000 ha), en Argentine, au Canada ou au Chili.
 En Australie, il occupe plus de 30 000 ha, notamment sur les zones d'Adelaide Hills, Margaret River ou Yarra Valley.
-En Afrique du Sud, il représente 8 255 ha de culture en 2013[5] essentiellement dans la région du Cap.
-La Nouvelle-Zélande produit de grands vins à base de chardonnay dans les régions de Gisborne ou Hawke's Bay[6].
-Presque tous les pays viticoles l'ont essayé[2] et adopté.
-Variabilité génétique
-Clones
-Signe de son âge, la variabilité génétique est importante. Des prospections ont conduit à la création d'un conservatoire du chardonnay B en Saône-et-Loire, riche de 340 clones en 1994[7]. Une autre collection de chardonnay B et du pinot noir N est prévue. À terme elle devrait regrouper près de 2 000 clones[8].
-Sur les premières prospections, des essais de vinification ont permis de répertorier les souches convenant le mieux à la culture. Elles ont abouti à l'homologation de 28 clones dont voici les caractéristiques[9].
+En Afrique du Sud, il représente 8 255 ha de culture en 2013 essentiellement dans la région du Cap.
+La Nouvelle-Zélande produit de grands vins à base de chardonnay dans les régions de Gisborne ou Hawke's Bay.
+Presque tous les pays viticoles l'ont essayé et adopté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variabilité génétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Clones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Signe de son âge, la variabilité génétique est importante. Des prospections ont conduit à la création d'un conservatoire du chardonnay B en Saône-et-Loire, riche de 340 clones en 1994. Une autre collection de chardonnay B et du pinot noir N est prévue. À terme elle devrait regrouper près de 2 000 clones.
+Sur les premières prospections, des essais de vinification ont permis de répertorier les souches convenant le mieux à la culture. Elles ont abouti à l'homologation de 28 clones dont voici les caractéristiques.
 Clones :
-Hybrides
-En 1982, l'INRA de Montpellier a homologué le perdea B, hybride du chardonnay B et du raffiat de Moncade B.
-Synonymie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variabilité génétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1982, l'INRA de Montpellier a homologué le perdea B, hybride du chardonnay B et du raffiat de Moncade B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arboisier
 Arnaison blanc
 Arnoison
@@ -639,31 +804,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chardonnay_(c%C3%A9page)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses caractères ampélographiques sont :
 Bourgeonnement verdâtre, velu.
@@ -675,40 +842,150 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chardonnay_(c%C3%A9page)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Il est généralement conduit en taille longue, mais en zone climatique favorable, il peut aussi être mené en taille courte. Ses terrains de prédilection sont les sols peu fertiles calcaires ou marneux.
-Sensibilité aux maladies
-Il est sensible à l'oïdium et à la flavescence dorée. En vigueur trop forte, la compacité des grappes fait craindre la pourriture grise à fin de maturité.
-Sensibilité climatique
-Cépage relativement précoce (maturité de première époque, une semaine et demie après le chasselas) il peut craindre les gelées tardives. Il craint aussi l'excès de végétation entraînant la pourriture grise en terrain trop fertile. Enfin, en climat chaud, il peut présenter des problèmes en cas de sécheresse trop intense. Ce cépage à la particularité d’être sujet à la coulure et au millerandage au moment de la floraison. En effet, ses fleurs sont très sensibles à ce phénomène lors d’épisodes climatiques pluvieux ou des températures trop fraîches.
-Œnologiques
-Il a un potentiel qualitatif élevé, permettant de donner des vins secs, effervescents ou même liquoreux. La teneur en sucre peut atteindre un niveau élevé en conservant un bon équilibre sucre-acidité ; cette caractéristique permet de donner des vins équilibrés, amples, puissants, aux arômes puissants et complexes. Les flaveurs généralement citées (arômes du vin) vont des fruits frais (banane, cassis, poire, mangue) aux fruits secs (amande, noisette) agrumes (citron, fleur d'oranger) aux épices (poivre, vanille, cannelle) aux arômes floraux (acacia, rose, lilas, lys, ou miel) ou beurre frais et cuir.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est généralement conduit en taille longue, mais en zone climatique favorable, il peut aussi être mené en taille courte. Ses terrains de prédilection sont les sols peu fertiles calcaires ou marneux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est sensible à l'oïdium et à la flavescence dorée. En vigueur trop forte, la compacité des grappes fait craindre la pourriture grise à fin de maturité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sensibilité climatique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cépage relativement précoce (maturité de première époque, une semaine et demie après le chasselas) il peut craindre les gelées tardives. Il craint aussi l'excès de végétation entraînant la pourriture grise en terrain trop fertile. Enfin, en climat chaud, il peut présenter des problèmes en cas de sécheresse trop intense. Ce cépage à la particularité d’être sujet à la coulure et au millerandage au moment de la floraison. En effet, ses fleurs sont très sensibles à ce phénomène lors d’épisodes climatiques pluvieux ou des températures trop fraîches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chardonnay_(cépage)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonnay_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Œnologiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a un potentiel qualitatif élevé, permettant de donner des vins secs, effervescents ou même liquoreux. La teneur en sucre peut atteindre un niveau élevé en conservant un bon équilibre sucre-acidité ; cette caractéristique permet de donner des vins équilibrés, amples, puissants, aux arômes puissants et complexes. Les flaveurs généralement citées (arômes du vin) vont des fruits frais (banane, cassis, poire, mangue) aux fruits secs (amande, noisette) agrumes (citron, fleur d'oranger) aux épices (poivre, vanille, cannelle) aux arômes floraux (acacia, rose, lilas, lys, ou miel) ou beurre frais et cuir.
 			Blanc de blancs
 			Meursault
 			Chassagne-montrachet du vignoble de Bourgogne
